--- a/README/DB設計書.xlsx
+++ b/README/DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspark-2103020\Desktop\xampp\htdocs\README\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883E07FC-C95A-4E4B-AD80-44A756DACAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B0525E-6C72-4B2D-982C-97CF83DCFA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69455923-D2AB-4E3C-A2E8-C48C203B16B3}"/>
+    <workbookView minimized="1" xWindow="-23010" yWindow="1995" windowWidth="17280" windowHeight="8970" activeTab="4" xr2:uid="{69455923-D2AB-4E3C-A2E8-C48C203B16B3}"/>
   </bookViews>
   <sheets>
     <sheet name="登録会社情報" sheetId="1" r:id="rId1"/>
@@ -1107,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1FE505-C445-4BF6-8048-66796A7A256C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -2069,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6691D290-E76D-4ED6-9EEE-80E73A3F8377}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2156,7 +2156,7 @@
         <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>117</v>
